--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Jam2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6313395566296</v>
+        <v>21.14949</v>
       </c>
       <c r="H2">
-        <v>12.6313395566296</v>
+        <v>63.44847</v>
       </c>
       <c r="I2">
-        <v>0.7030953181753221</v>
+        <v>0.7650795756208056</v>
       </c>
       <c r="J2">
-        <v>0.7030953181753221</v>
+        <v>0.7650795756208055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.42897436336294</v>
+        <v>78.14483633333333</v>
       </c>
       <c r="N2">
-        <v>5.42897436336294</v>
+        <v>234.434509</v>
       </c>
       <c r="O2">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517618</v>
       </c>
       <c r="P2">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517619</v>
       </c>
       <c r="Q2">
-        <v>68.57521862787431</v>
+        <v>1652.72343458347</v>
       </c>
       <c r="R2">
-        <v>68.57521862787431</v>
+        <v>14874.51091125123</v>
       </c>
       <c r="S2">
-        <v>0.3539973558078066</v>
+        <v>0.6693752069172741</v>
       </c>
       <c r="T2">
-        <v>0.3539973558078066</v>
+        <v>0.6693752069172741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6313395566296</v>
+        <v>21.14949</v>
       </c>
       <c r="H3">
-        <v>12.6313395566296</v>
+        <v>63.44847</v>
       </c>
       <c r="I3">
-        <v>0.7030953181753221</v>
+        <v>0.7650795756208056</v>
       </c>
       <c r="J3">
-        <v>0.7030953181753221</v>
+        <v>0.7650795756208055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.238191054816023</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="N3">
-        <v>0.238191054816023</v>
+        <v>16.558955</v>
       </c>
       <c r="O3">
-        <v>0.02208988570825958</v>
+        <v>0.06179799706620124</v>
       </c>
       <c r="P3">
-        <v>0.02208988570825958</v>
+        <v>0.06179799706620125</v>
       </c>
       <c r="Q3">
-        <v>3.008672092732961</v>
+        <v>116.73781772765</v>
       </c>
       <c r="R3">
-        <v>3.008672092732961</v>
+        <v>1050.64035954885</v>
       </c>
       <c r="S3">
-        <v>0.01553129522050527</v>
+        <v>0.04728038536962503</v>
       </c>
       <c r="T3">
-        <v>0.01553129522050527</v>
+        <v>0.04728038536962504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6313395566296</v>
+        <v>21.14949</v>
       </c>
       <c r="H4">
-        <v>12.6313395566296</v>
+        <v>63.44847</v>
       </c>
       <c r="I4">
-        <v>0.7030953181753221</v>
+        <v>0.7650795756208056</v>
       </c>
       <c r="J4">
-        <v>0.7030953181753221</v>
+        <v>0.7650795756208055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.11564522927321</v>
+        <v>0.2717503333333333</v>
       </c>
       <c r="N4">
-        <v>5.11564522927321</v>
+        <v>0.8152509999999999</v>
       </c>
       <c r="O4">
-        <v>0.4744259540977811</v>
+        <v>0.003042515599940795</v>
       </c>
       <c r="P4">
-        <v>0.4744259540977811</v>
+        <v>0.003042515599940796</v>
       </c>
       <c r="Q4">
-        <v>64.61745194220219</v>
+        <v>5.74738095733</v>
       </c>
       <c r="R4">
-        <v>64.61745194220219</v>
+        <v>51.72642861596999</v>
       </c>
       <c r="S4">
-        <v>0.3335666671470102</v>
+        <v>0.002327766544022385</v>
       </c>
       <c r="T4">
-        <v>0.3335666671470102</v>
+        <v>0.002327766544022385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.98097584621721</v>
+        <v>21.14949</v>
       </c>
       <c r="H5">
-        <v>4.98097584621721</v>
+        <v>63.44847</v>
       </c>
       <c r="I5">
-        <v>0.2772549009326247</v>
+        <v>0.7650795756208056</v>
       </c>
       <c r="J5">
-        <v>0.2772549009326247</v>
+        <v>0.7650795756208055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42897436336294</v>
+        <v>5.381408333333333</v>
       </c>
       <c r="N5">
-        <v>5.42897436336294</v>
+        <v>16.144225</v>
       </c>
       <c r="O5">
-        <v>0.5034841601939593</v>
+        <v>0.06025022528209618</v>
       </c>
       <c r="P5">
-        <v>0.5034841601939593</v>
+        <v>0.06025022528209618</v>
       </c>
       <c r="Q5">
-        <v>27.04159017364326</v>
+        <v>113.81404173175</v>
       </c>
       <c r="R5">
-        <v>27.04159017364326</v>
+        <v>1024.32637558575</v>
       </c>
       <c r="S5">
-        <v>0.1395934509557219</v>
+        <v>0.04609621678988408</v>
       </c>
       <c r="T5">
-        <v>0.1395934509557219</v>
+        <v>0.04609621678988408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.98097584621721</v>
+        <v>0.165216</v>
       </c>
       <c r="H6">
-        <v>4.98097584621721</v>
+        <v>0.495648</v>
       </c>
       <c r="I6">
-        <v>0.2772549009326247</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="J6">
-        <v>0.2772549009326247</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.238191054816023</v>
+        <v>78.14483633333333</v>
       </c>
       <c r="N6">
-        <v>0.238191054816023</v>
+        <v>234.434509</v>
       </c>
       <c r="O6">
-        <v>0.02208988570825958</v>
+        <v>0.8749092620517618</v>
       </c>
       <c r="P6">
-        <v>0.02208988570825958</v>
+        <v>0.8749092620517619</v>
       </c>
       <c r="Q6">
-        <v>1.18642389082361</v>
+        <v>12.910777279648</v>
       </c>
       <c r="R6">
-        <v>1.18642389082361</v>
+        <v>116.196995516832</v>
       </c>
       <c r="S6">
-        <v>0.006124529073656513</v>
+        <v>0.00522903834494564</v>
       </c>
       <c r="T6">
-        <v>0.006124529073656513</v>
+        <v>0.005229038344945641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.98097584621721</v>
+        <v>0.165216</v>
       </c>
       <c r="H7">
-        <v>4.98097584621721</v>
+        <v>0.495648</v>
       </c>
       <c r="I7">
-        <v>0.2772549009326247</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="J7">
-        <v>0.2772549009326247</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.11564522927321</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="N7">
-        <v>5.11564522927321</v>
+        <v>16.558955</v>
       </c>
       <c r="O7">
-        <v>0.4744259540977811</v>
+        <v>0.06179799706620124</v>
       </c>
       <c r="P7">
-        <v>0.4744259540977811</v>
+        <v>0.06179799706620125</v>
       </c>
       <c r="Q7">
-        <v>25.48090532482616</v>
+        <v>0.9119347697599998</v>
       </c>
       <c r="R7">
-        <v>25.48090532482616</v>
+        <v>8.20741292784</v>
       </c>
       <c r="S7">
-        <v>0.1315369209032463</v>
+        <v>0.0003693458399813882</v>
       </c>
       <c r="T7">
-        <v>0.1315369209032463</v>
+        <v>0.0003693458399813882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.353014802182206</v>
+        <v>0.165216</v>
       </c>
       <c r="H8">
-        <v>0.353014802182206</v>
+        <v>0.495648</v>
       </c>
       <c r="I8">
-        <v>0.01964978089205324</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="J8">
-        <v>0.01964978089205324</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.42897436336294</v>
+        <v>0.2717503333333333</v>
       </c>
       <c r="N8">
-        <v>5.42897436336294</v>
+        <v>0.8152509999999999</v>
       </c>
       <c r="O8">
-        <v>0.5034841601939593</v>
+        <v>0.003042515599940795</v>
       </c>
       <c r="P8">
-        <v>0.5034841601939593</v>
+        <v>0.003042515599940796</v>
       </c>
       <c r="Q8">
-        <v>1.916508310934836</v>
+        <v>0.04489750307199999</v>
       </c>
       <c r="R8">
-        <v>1.916508310934836</v>
+        <v>0.404077527648</v>
       </c>
       <c r="S8">
-        <v>0.009893353430430732</v>
+        <v>1.818409225646586E-05</v>
       </c>
       <c r="T8">
-        <v>0.009893353430430732</v>
+        <v>1.818409225646587E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.353014802182206</v>
+        <v>0.165216</v>
       </c>
       <c r="H9">
-        <v>0.353014802182206</v>
+        <v>0.495648</v>
       </c>
       <c r="I9">
-        <v>0.01964978089205324</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="J9">
-        <v>0.01964978089205324</v>
+        <v>0.005976663605872625</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.238191054816023</v>
+        <v>5.381408333333333</v>
       </c>
       <c r="N9">
-        <v>0.238191054816023</v>
+        <v>16.144225</v>
       </c>
       <c r="O9">
-        <v>0.02208988570825958</v>
+        <v>0.06025022528209618</v>
       </c>
       <c r="P9">
-        <v>0.02208988570825958</v>
+        <v>0.06025022528209618</v>
       </c>
       <c r="Q9">
-        <v>0.08408496809744935</v>
+        <v>0.8890947591999999</v>
       </c>
       <c r="R9">
-        <v>0.08408496809744935</v>
+        <v>8.001852832799999</v>
       </c>
       <c r="S9">
-        <v>0.000434061414097799</v>
+        <v>0.0003600953286891309</v>
       </c>
       <c r="T9">
-        <v>0.000434061414097799</v>
+        <v>0.000360095328689131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.843715</v>
+      </c>
+      <c r="H10">
+        <v>17.531145</v>
+      </c>
+      <c r="I10">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="J10">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>78.14483633333333</v>
+      </c>
+      <c r="N10">
+        <v>234.434509</v>
+      </c>
+      <c r="O10">
+        <v>0.8749092620517618</v>
+      </c>
+      <c r="P10">
+        <v>0.8749092620517619</v>
+      </c>
+      <c r="Q10">
+        <v>456.656152253645</v>
+      </c>
+      <c r="R10">
+        <v>4109.905370282805</v>
+      </c>
+      <c r="S10">
+        <v>0.1849518800354325</v>
+      </c>
+      <c r="T10">
+        <v>0.1849518800354325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.843715</v>
+      </c>
+      <c r="H11">
+        <v>17.531145</v>
+      </c>
+      <c r="I11">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="J11">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.519651666666666</v>
+      </c>
+      <c r="N11">
+        <v>16.558955</v>
+      </c>
+      <c r="O11">
+        <v>0.06179799706620124</v>
+      </c>
+      <c r="P11">
+        <v>0.06179799706620125</v>
+      </c>
+      <c r="Q11">
+        <v>32.255271239275</v>
+      </c>
+      <c r="R11">
+        <v>290.297441153475</v>
+      </c>
+      <c r="S11">
+        <v>0.01306381842731235</v>
+      </c>
+      <c r="T11">
+        <v>0.01306381842731236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.843715</v>
+      </c>
+      <c r="H12">
+        <v>17.531145</v>
+      </c>
+      <c r="I12">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="J12">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2717503333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.8152509999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.003042515599940795</v>
+      </c>
+      <c r="P12">
+        <v>0.003042515599940796</v>
+      </c>
+      <c r="Q12">
+        <v>1.588031499155</v>
+      </c>
+      <c r="R12">
+        <v>14.292283492395</v>
+      </c>
+      <c r="S12">
+        <v>0.0006431741034796474</v>
+      </c>
+      <c r="T12">
+        <v>0.0006431741034796475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.843715</v>
+      </c>
+      <c r="H13">
+        <v>17.531145</v>
+      </c>
+      <c r="I13">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="J13">
+        <v>0.2113954990048902</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.381408333333333</v>
+      </c>
+      <c r="N13">
+        <v>16.144225</v>
+      </c>
+      <c r="O13">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="P13">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="Q13">
+        <v>31.447416598625</v>
+      </c>
+      <c r="R13">
+        <v>283.026749387625</v>
+      </c>
+      <c r="S13">
+        <v>0.01273662643866577</v>
+      </c>
+      <c r="T13">
+        <v>0.01273662643866578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4850956666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.455287</v>
+      </c>
+      <c r="I14">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="J14">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>78.14483633333333</v>
+      </c>
+      <c r="N14">
+        <v>234.434509</v>
+      </c>
+      <c r="O14">
+        <v>0.8749092620517618</v>
+      </c>
+      <c r="P14">
+        <v>0.8749092620517619</v>
+      </c>
+      <c r="Q14">
+        <v>37.90772147767589</v>
+      </c>
+      <c r="R14">
+        <v>341.169493299083</v>
+      </c>
+      <c r="S14">
+        <v>0.01535313675410958</v>
+      </c>
+      <c r="T14">
+        <v>0.01535313675410958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4850956666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.455287</v>
+      </c>
+      <c r="I15">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="J15">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.519651666666666</v>
+      </c>
+      <c r="N15">
+        <v>16.558955</v>
+      </c>
+      <c r="O15">
+        <v>0.06179799706620124</v>
+      </c>
+      <c r="P15">
+        <v>0.06179799706620125</v>
+      </c>
+      <c r="Q15">
+        <v>2.677559105009444</v>
+      </c>
+      <c r="R15">
+        <v>24.098031945085</v>
+      </c>
+      <c r="S15">
+        <v>0.001084447429282463</v>
+      </c>
+      <c r="T15">
+        <v>0.001084447429282464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.353014802182206</v>
-      </c>
-      <c r="H10">
-        <v>0.353014802182206</v>
-      </c>
-      <c r="I10">
-        <v>0.01964978089205324</v>
-      </c>
-      <c r="J10">
-        <v>0.01964978089205324</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.11564522927321</v>
-      </c>
-      <c r="N10">
-        <v>5.11564522927321</v>
-      </c>
-      <c r="O10">
-        <v>0.4744259540977811</v>
-      </c>
-      <c r="P10">
-        <v>0.4744259540977811</v>
-      </c>
-      <c r="Q10">
-        <v>1.805898488646228</v>
-      </c>
-      <c r="R10">
-        <v>1.805898488646228</v>
-      </c>
-      <c r="S10">
-        <v>0.009322366047524705</v>
-      </c>
-      <c r="T10">
-        <v>0.009322366047524705</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4850956666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.455287</v>
+      </c>
+      <c r="I16">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="J16">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2717503333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.8152509999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.003042515599940795</v>
+      </c>
+      <c r="P16">
+        <v>0.003042515599940796</v>
+      </c>
+      <c r="Q16">
+        <v>0.1318249091152222</v>
+      </c>
+      <c r="R16">
+        <v>1.186424182037</v>
+      </c>
+      <c r="S16">
+        <v>5.33908601822976E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.339086018229761E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4850956666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.455287</v>
+      </c>
+      <c r="I17">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="J17">
+        <v>0.01754826176843154</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.381408333333333</v>
+      </c>
+      <c r="N17">
+        <v>16.144225</v>
+      </c>
+      <c r="O17">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="P17">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="Q17">
+        <v>2.610497863063888</v>
+      </c>
+      <c r="R17">
+        <v>23.494480767575</v>
+      </c>
+      <c r="S17">
+        <v>0.001057286724857195</v>
+      </c>
+      <c r="T17">
+        <v>0.001057286724857196</v>
       </c>
     </row>
   </sheetData>
